--- a/11月麻醉电子大账（二)_20181112215332.xlsx
+++ b/11月麻醉电子大账（二)_20181112215332.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="236">
   <si>
     <t>数据唯一编号</t>
   </si>
@@ -74,7 +74,7 @@
     <t>最后活动时间</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000815569324	</t>
+    <t>2300000815569324	</t>
   </si>
   <si>
     <t>日间眼科局监</t>
@@ -92,7 +92,7 @@
     <t>2018-11-12 15:12:07</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000811408831	</t>
+    <t>2300000811408831	</t>
   </si>
   <si>
     <t>image.jpg</t>
@@ -101,7 +101,7 @@
     <t>2018-11-09 15:53:29</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000809018966	</t>
+    <t>2300000809018966	</t>
   </si>
   <si>
     <t>5D6DC129-5BD4-4D59-9D8B-6B3010DBE706.jpeg</t>
@@ -110,7 +110,7 @@
     <t>2018-11-08 16:40:21</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000806893178	</t>
+    <t>2300000806893178	</t>
   </si>
   <si>
     <t>788E8534-8418-44F6-94CF-48D44EF80D45.jpeg</t>
@@ -119,7 +119,7 @@
     <t>2018-11-07 15:32:38</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000815642408	</t>
+    <t>2300000815642408	</t>
   </si>
   <si>
     <t>2#眼科局监</t>
@@ -134,7 +134,7 @@
     <t>2018-11-12 15:48:51</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000810988206	</t>
+    <t>2300000810988206	</t>
   </si>
   <si>
     <t>IMG_20181109_133309.jpg</t>
@@ -146,7 +146,7 @@
     <t>2018-11-09 13:34:06</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000808449953	</t>
+    <t>2300000808449953	</t>
   </si>
   <si>
     <t>IMG_20181108_124651.jpg</t>
@@ -158,7 +158,7 @@
     <t>2018-11-08 12:49:46</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000806948928	</t>
+    <t>2300000806948928	</t>
   </si>
   <si>
     <t>IMG_20181107_155927.jpg</t>
@@ -170,7 +170,7 @@
     <t>2018-11-07 16:01:43</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000804760143	</t>
+    <t>2300000804760143	</t>
   </si>
   <si>
     <t>IMG_20181106_141054.jpg</t>
@@ -182,7 +182,7 @@
     <t>2018-11-06 14:16:48</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000803602558	</t>
+    <t>2300000803602558	</t>
   </si>
   <si>
     <t>de48ba7c2d452f48ea97d0d3458141a8.jpg</t>
@@ -194,7 +194,7 @@
     <t>2018-11-05 18:24:03</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000803601166	</t>
+    <t>2300000803601166	</t>
   </si>
   <si>
     <t>0140abe5c67a522a0ddefba9437c8190.jpg</t>
@@ -206,7 +206,7 @@
     <t>2018-11-05 18:21:44</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000798205039	</t>
+    <t>2300000798205039	</t>
   </si>
   <si>
     <t>IMG_20181102_130940.jpg</t>
@@ -215,7 +215,7 @@
     <t>2018-11-02 13:12:23</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000796816562	</t>
+    <t>2300000796816562	</t>
   </si>
   <si>
     <t>IMG_20181101_165514.jpg</t>
@@ -224,7 +224,7 @@
     <t>2018-11-01 18:12:45</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000796707275	</t>
+    <t>2300000796707275	</t>
   </si>
   <si>
     <t>wx_camera_1541042129599.jpg</t>
@@ -233,7 +233,7 @@
     <t>2018-11-01 17:26:04</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000796466303	</t>
+    <t>2300000796466303	</t>
   </si>
   <si>
     <t>2018-11-01 15:38:34</t>
@@ -242,7 +242,7 @@
     <t>2018-11-01 16:01:35</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000813025248	</t>
+    <t>2300000813025248	</t>
   </si>
   <si>
     <t>日间人流</t>
@@ -257,13 +257,13 @@
     <t>2018-11-10 19:40:01</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000806027565	</t>
+    <t>2300000806027565	</t>
   </si>
   <si>
     <t>2018-11-07 10:01:09</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000814492120	</t>
+    <t>2300000814492120	</t>
   </si>
   <si>
     <t>无痛分娩</t>
@@ -284,7 +284,7 @@
     <t>2018-11-12 07:00:54</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000813603987	</t>
+    <t>2300000813603987	</t>
   </si>
   <si>
     <t>413011</t>
@@ -296,7 +296,7 @@
     <t>2018-11-11 11:54:33</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000813430705	</t>
+    <t>2300000813430705	</t>
   </si>
   <si>
     <t>412996</t>
@@ -308,7 +308,7 @@
     <t>2018-11-11 09:46:10</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000812735270	</t>
+    <t>2300000812735270	</t>
   </si>
   <si>
     <t>412754</t>
@@ -320,7 +320,7 @@
     <t>2018-11-10 16:33:26</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000811919545	</t>
+    <t>2300000811919545	</t>
   </si>
   <si>
     <t>00412759</t>
@@ -332,7 +332,7 @@
     <t>2018-11-09 22:56:30</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000811227151	</t>
+    <t>2300000811227151	</t>
   </si>
   <si>
     <t>00412510</t>
@@ -347,7 +347,7 @@
     <t>2018-11-09 15:07:28</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000808471516	</t>
+    <t>2300000808471516	</t>
   </si>
   <si>
     <t>00412497</t>
@@ -365,7 +365,7 @@
     <t>2018-11-08 13:19:05</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000808235208	</t>
+    <t>2300000808235208	</t>
   </si>
   <si>
     <t>00412576</t>
@@ -377,7 +377,7 @@
     <t>2018-11-08 10:31:09</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000807668228	</t>
+    <t>2300000807668228	</t>
   </si>
   <si>
     <t>00412573</t>
@@ -389,7 +389,7 @@
     <t>2018-11-08 00:26:33</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000805661609	</t>
+    <t>2300000805661609	</t>
   </si>
   <si>
     <t>00412413</t>
@@ -404,7 +404,7 @@
     <t>2018-11-09 11:57:10</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000805641197	</t>
+    <t>2300000805641197	</t>
   </si>
   <si>
     <t>00412089</t>
@@ -416,7 +416,7 @@
     <t>2018-11-07 02:11:27</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000804637398	</t>
+    <t>2300000804637398	</t>
   </si>
   <si>
     <t>412106</t>
@@ -431,7 +431,7 @@
     <t>2018-11-06 12:41:10</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000803370584	</t>
+    <t>2300000803370584	</t>
   </si>
   <si>
     <t>00411910</t>
@@ -443,7 +443,7 @@
     <t>2018-11-05 16:24:19</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000801676417	</t>
+    <t>2300000801676417	</t>
   </si>
   <si>
     <t>00411779</t>
@@ -452,13 +452,13 @@
     <t>吴净丽</t>
   </si>
   <si>
-    <t>吴洁*张怡*</t>
+    <t>吴洁* 张怡*</t>
   </si>
   <si>
     <t>2018-11-04 21:14:46</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000801352450	</t>
+    <t>2300000801352450	</t>
   </si>
   <si>
     <t>00411904</t>
@@ -470,7 +470,7 @@
     <t>2018-11-04 15:39:06</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000800590744	</t>
+    <t>2300000800590744	</t>
   </si>
   <si>
     <t>00411778</t>
@@ -482,7 +482,7 @@
     <t>2018-11-04 03:36:04</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000800376297	</t>
+    <t>2300000800376297	</t>
   </si>
   <si>
     <t>00411847</t>
@@ -494,7 +494,7 @@
     <t>2018-11-03 20:28:25</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000800059778	</t>
+    <t>2300000800059778	</t>
   </si>
   <si>
     <t>00411790</t>
@@ -506,7 +506,7 @@
     <t>2018-11-03 14:51:42</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000795967063	</t>
+    <t>2300000795967063	</t>
   </si>
   <si>
     <t>00411609</t>
@@ -518,7 +518,7 @@
     <t>2018-11-01 12:31:47</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000812172351	</t>
+    <t>2300000812172351	</t>
   </si>
   <si>
     <t>无痛取卵</t>
@@ -527,49 +527,49 @@
     <t>2018-11-10 09:43:11</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000810571471	</t>
+    <t>2300000810571471	</t>
   </si>
   <si>
     <t>2018-11-09 10:42:59</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000806356676	</t>
+    <t>2300000806356676	</t>
   </si>
   <si>
     <t>2018-11-07 11:30:35</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000804414425	</t>
+    <t>2300000804414425	</t>
   </si>
   <si>
     <t>2018-11-06 10:40:41</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000803888048	</t>
+    <t>2300000803888048	</t>
   </si>
   <si>
     <t>2018-11-05 23:17:54</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000799617765	</t>
+    <t>2300000799617765	</t>
   </si>
   <si>
     <t>2018-11-03 10:35:49</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000797427649	</t>
+    <t>2300000797427649	</t>
   </si>
   <si>
     <t>2018-11-02 09:13:38</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000796974875	</t>
+    <t>2300000796974875	</t>
   </si>
   <si>
     <t>2018-11-01 19:22:01</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000810571778	</t>
+    <t>2300000810571778	</t>
   </si>
   <si>
     <t>门诊人流</t>
@@ -578,31 +578,31 @@
     <t>2018-11-09 10:43:13</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000806356960	</t>
+    <t>2300000806356960	</t>
   </si>
   <si>
     <t>2018-11-07 11:30:57</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000804413615	</t>
+    <t>2300000804413615	</t>
   </si>
   <si>
     <t>2018-11-06 10:40:12</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000803888021	</t>
+    <t>2300000803888021	</t>
   </si>
   <si>
     <t>2018-11-05 23:17:44</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000796974808	</t>
+    <t>2300000796974808	</t>
   </si>
   <si>
     <t>2018-11-01 19:21:46</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000815740476	</t>
+    <t>2300000815740476	</t>
   </si>
   <si>
     <t>胃肠镜</t>
@@ -620,7 +620,7 @@
     <t>2018-11-12 16:17:16</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000811285335	</t>
+    <t>2300000811285335	</t>
   </si>
   <si>
     <t>IMG_5244.JPG</t>
@@ -635,7 +635,7 @@
     <t>2018-11-09 15:24:18</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000809155893	</t>
+    <t>2300000809155893	</t>
   </si>
   <si>
     <t>IMG_20181108_170114.jpg</t>
@@ -650,7 +650,7 @@
     <t>2018-11-08 17:42:30</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000806956746	</t>
+    <t>2300000806956746	</t>
   </si>
   <si>
     <t>IMG_5739.JPG、IMG_5740.JPG、IMG_5741.JPG</t>
@@ -665,7 +665,7 @@
     <t>2018-11-07 16:07:59</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000805068079	</t>
+    <t>2300000805068079	</t>
   </si>
   <si>
     <t>image.jpg、image.jpg、image.jpg、image.jpg</t>
@@ -677,7 +677,7 @@
     <t>2018-11-06 16:44:03</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000803352427	</t>
+    <t>2300000803352427	</t>
   </si>
   <si>
     <t>IMG_20181105_161533.jpg</t>
@@ -689,7 +689,7 @@
     <t>2018-11-05 16:20:20</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000798540339	</t>
+    <t>2300000798540339	</t>
   </si>
   <si>
     <t>IMG_5235.JPG</t>
@@ -701,7 +701,7 @@
     <t>2018-11-02 15:34:56</t>
   </si>
   <si>
-    <t xml:space="preserve">2300000796560678	</t>
+    <t>2300000796560678	</t>
   </si>
   <si>
     <t>IMG_20181101_160200.jpg</t>
@@ -728,19 +728,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="4">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -748,2950 +762,2230 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:S59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J33" activeCellId="0" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15" customWidth="true" style="0"/>
-    <col min="5" max="5" width="15" customWidth="true" style="0"/>
-    <col min="6" max="6" width="15" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15" customWidth="true" style="0"/>
-    <col min="10" max="10" width="15" customWidth="true" style="0"/>
-    <col min="11" max="11" width="15" customWidth="true" style="0"/>
-    <col min="12" max="12" width="15" customWidth="true" style="0"/>
-    <col min="13" max="13" width="15" customWidth="true" style="0"/>
-    <col min="14" max="14" width="15" customWidth="true" style="0"/>
-    <col min="15" max="15" width="15" customWidth="true" style="0"/>
-    <col min="16" max="16" width="15" customWidth="true" style="0"/>
-    <col min="17" max="17" width="15" customWidth="true" style="0"/>
-    <col min="18" max="18" width="15" customWidth="true" style="0"/>
-    <col min="19" max="19" width="15" customWidth="true" style="0"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="14.9953051643192"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.10798122065728"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.92488262910798"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9953051643192"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.7887323943662"/>
+    <col collapsed="false" hidden="false" max="19" min="8" style="0" width="14.9953051643192"/>
+    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.61971830985915"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="n">
         <v>43416</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D2"/>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F2"/>
-      <c r="G2" t="s">
+      <c r="G2" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2" t="s">
+      <c r="J2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Q2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D3"/>
-      <c r="E3">
+      <c r="E3" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F3"/>
-      <c r="G3" t="s">
+      <c r="G3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3" t="s">
+      <c r="J3" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="O3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="n">
         <v>43412</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D4"/>
-      <c r="E4">
+      <c r="E4" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
+      <c r="G4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4" t="s">
+      <c r="J4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="O4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="Q4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="0" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="n">
         <v>43411</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D5"/>
-      <c r="E5">
+      <c r="E5" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F5"/>
-      <c r="G5" t="s">
+      <c r="G5" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5" t="s">
+      <c r="J5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
+      <c r="O5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Q5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="Q5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
-      <c r="A6" t="s">
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="1" t="n">
         <v>43416</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D6"/>
-      <c r="E6">
+      <c r="E6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F6"/>
-      <c r="G6" t="s">
+      <c r="G6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6" t="s">
+      <c r="J6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="O6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="Q6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="0" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
-      <c r="A7" t="s">
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D7"/>
-      <c r="E7">
+      <c r="E7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F7"/>
-      <c r="G7" t="s">
+      <c r="G7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="H7"/>
-      <c r="I7"/>
-      <c r="J7" t="s">
+      <c r="J7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="O7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="Q7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
-      <c r="A8" t="s">
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>43412</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D8"/>
-      <c r="E8">
+      <c r="E8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F8"/>
-      <c r="G8" t="s">
+      <c r="G8" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8" t="s">
+      <c r="J8" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" t="s">
+      <c r="O8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="Q8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
-      <c r="A9" t="s">
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="1" t="n">
         <v>43411</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D9"/>
-      <c r="E9">
+      <c r="E9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F9"/>
-      <c r="G9" t="s">
+      <c r="G9" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9" t="s">
+      <c r="J9" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="O9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="Q9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" t="s">
+      <c r="Q9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R9" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
-      <c r="A10" t="s">
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>43410</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D10"/>
-      <c r="E10">
+      <c r="E10" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F10"/>
-      <c r="G10" t="s">
+      <c r="G10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10" t="s">
+      <c r="J10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P10" t="s">
+      <c r="O10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" t="s">
+      <c r="Q10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R10" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
-      <c r="A11" t="s">
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>43409</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D11"/>
-      <c r="E11">
+      <c r="E11" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F11"/>
-      <c r="G11" t="s">
+      <c r="G11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" t="s">
+      <c r="J11" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11" t="s">
+      <c r="O11" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="Q11" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" t="s">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="1" t="n">
         <v>43409</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D12"/>
-      <c r="E12">
+      <c r="E12" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F12"/>
-      <c r="G12" t="s">
+      <c r="G12" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12" t="s">
+      <c r="J12" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12" t="s">
+      <c r="O12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R12" t="s">
+      <c r="R12" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="0" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
-      <c r="A13" t="s">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="n">
         <v>43406</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D13"/>
-      <c r="E13">
+      <c r="E13" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F13"/>
-      <c r="G13" t="s">
+      <c r="G13" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13" t="s">
+      <c r="J13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="O13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" t="s">
+      <c r="Q13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="S13" t="s">
+      <c r="S13" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" t="s">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="n">
         <v>43405</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D14"/>
-      <c r="E14">
+      <c r="E14" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F14"/>
-      <c r="G14" t="s">
+      <c r="G14" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14" t="s">
+      <c r="J14" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14" t="s">
-        <v>23</v>
-      </c>
-      <c r="P14" t="s">
+      <c r="O14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="Q14" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14" s="0" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
-      <c r="A15" t="s">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="1" t="n">
         <v>43405</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D15"/>
-      <c r="E15">
+      <c r="E15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F15"/>
-      <c r="G15" t="s">
+      <c r="G15" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15" t="s">
+      <c r="J15" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" t="s">
+      <c r="O15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="Q15" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="Q15" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
-      <c r="A16" t="s">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="1" t="n">
         <v>43405</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="D16"/>
-      <c r="E16">
+      <c r="E16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F16"/>
-      <c r="G16" t="s">
+      <c r="G16" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16" t="s">
+      <c r="J16" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" t="s">
+      <c r="O16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="Q16" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" t="s">
+      <c r="Q16" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S16" s="0" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
-      <c r="A17" t="s">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D17"/>
-      <c r="E17">
+      <c r="E17" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="F17"/>
-      <c r="G17" t="s">
+      <c r="G17" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" t="s">
+      <c r="J17" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17" t="s">
-        <v>23</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="O17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="Q17" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" t="s">
+      <c r="Q17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R17" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S17" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
-      <c r="A18" t="s">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="1" t="n">
         <v>43411</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D18"/>
-      <c r="E18">
+      <c r="E18" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F18"/>
-      <c r="G18" t="s">
+      <c r="G18" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18" t="s">
+      <c r="J18" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18" t="s">
-        <v>23</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="O18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="Q18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S18" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
-      <c r="A19" t="s">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="1" t="n">
         <v>43416</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19" t="s">
+      <c r="H19" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19" t="s">
+      <c r="O19" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="Q19" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
-      <c r="A20" t="s">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="1" t="n">
         <v>43415</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20" t="s">
+      <c r="H20" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20" t="s">
+      <c r="O20" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q20" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S20" s="0" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
-      <c r="A21" t="s">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="1" t="n">
         <v>43415</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21" t="s">
+      <c r="H21" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21" t="s">
+      <c r="O21" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="Q21" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="S21" t="s">
+      <c r="S21" s="0" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:19">
-      <c r="A22" t="s">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="1" t="n">
         <v>43414</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22" t="s">
+      <c r="H22" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P22" t="s">
+      <c r="O22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="Q22" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="Q22" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="S22" t="s">
+      <c r="S22" s="0" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
-      <c r="A23" t="s">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23" t="s">
+      <c r="H23" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23" t="s">
+      <c r="O23" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="Q23" t="s">
+      <c r="Q23" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="R23" t="s">
+      <c r="R23" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="S23" t="s">
+      <c r="S23" s="0" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:19">
-      <c r="A24" t="s">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24" t="s">
+      <c r="H24" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" t="s">
+      <c r="O24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="Q24" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="Q24" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R24" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:19">
-      <c r="A25" t="s">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="n">
         <v>43412</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25" t="s">
+      <c r="H25" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" t="s">
+      <c r="O25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="Q25" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" t="s">
+      <c r="Q25" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
-      <c r="A26" t="s">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="1" t="n">
         <v>43412</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26" t="s">
+      <c r="H26" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26" t="s">
-        <v>23</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="O26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="Q26" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" t="s">
+      <c r="Q26" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S26" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:19">
-      <c r="A27" t="s">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="1" t="n">
         <v>43412</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27" t="s">
+      <c r="H27" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27" t="s">
-        <v>23</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="O27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="Q27" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" t="s">
+      <c r="Q27" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R27" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
-      <c r="A28" t="s">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="n">
         <v>43411</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28" t="s">
+      <c r="H28" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28" t="s">
-        <v>23</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="O28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="Q28" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" t="s">
+      <c r="Q28" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R28" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="S28" t="s">
+      <c r="S28" s="0" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:19">
-      <c r="A29" t="s">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="1" t="n">
         <v>43411</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29" t="s">
+      <c r="H29" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29" t="s">
-        <v>23</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="O29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="Q29" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" t="s">
+      <c r="Q29" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R29" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="S29" t="s">
+      <c r="S29" s="0" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
-      <c r="A30" t="s">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="1" t="n">
         <v>43410</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30" t="s">
+      <c r="H30" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30" t="s">
-        <v>23</v>
-      </c>
-      <c r="P30" t="s">
+      <c r="O30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="Q30" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" t="s">
+      <c r="Q30" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="S30" t="s">
+      <c r="S30" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
-      <c r="A31" t="s">
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="1" t="n">
         <v>43409</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31" t="s">
+      <c r="H31" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31" t="s">
-        <v>23</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="O31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="Q31" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" t="s">
+      <c r="Q31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="S31" t="s">
+      <c r="S31" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
-      <c r="A32" t="s">
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="n">
         <v>43408</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32" t="s">
+      <c r="H32" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32" t="s">
-        <v>23</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="O32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="Q32" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="Q32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="S32" t="s">
+      <c r="S32" s="0" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
-      <c r="A33" t="s">
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="1" t="n">
         <v>43408</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33" t="s">
+      <c r="H33" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33" t="s">
-        <v>23</v>
-      </c>
-      <c r="P33" t="s">
+      <c r="O33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="Q33" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="Q33" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S33" s="0" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
-      <c r="A34" t="s">
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="1" t="n">
         <v>43408</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34" t="s">
+      <c r="H34" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34" t="s">
-        <v>23</v>
-      </c>
-      <c r="P34" t="s">
+      <c r="O34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P34" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="Q34" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" t="s">
+      <c r="Q34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R34" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S34" s="0" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:19">
-      <c r="A35" t="s">
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="1" t="n">
         <v>43407</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35" t="s">
+      <c r="H35" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35" t="s">
-        <v>23</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="O35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P35" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="Q35" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" t="s">
+      <c r="Q35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R35" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="S35" t="s">
+      <c r="S35" s="0" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:19">
-      <c r="A36" t="s">
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="1" t="n">
         <v>43407</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36" t="s">
+      <c r="H36" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36" t="s">
-        <v>23</v>
-      </c>
-      <c r="P36" t="s">
+      <c r="O36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="Q36" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="Q36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="S36" t="s">
+      <c r="S36" s="0" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
-      <c r="A37" t="s">
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="1" t="n">
         <v>43405</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37" t="s">
+      <c r="H37" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37" t="s">
+      <c r="O37" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="Q37" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R37" t="s">
+      <c r="R37" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="S37" t="s">
+      <c r="S37" s="0" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:19">
-      <c r="A38" t="s">
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="1" t="n">
         <v>43414</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D38"/>
-      <c r="E38">
+      <c r="E38" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38" t="s">
+      <c r="J38" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38" t="s">
-        <v>23</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="O38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="Q38" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" t="s">
+      <c r="Q38" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R38" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="S38" t="s">
+      <c r="S38" s="0" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
-      <c r="A39" t="s">
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D39"/>
-      <c r="E39">
+      <c r="E39" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39" t="s">
+      <c r="J39" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39" t="s">
+      <c r="O39" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q39" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="R39" t="s">
+      <c r="R39" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="S39" t="s">
+      <c r="S39" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
-      <c r="A40" t="s">
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="1" t="n">
         <v>43411</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D40"/>
-      <c r="E40">
+      <c r="E40" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40" t="s">
+      <c r="J40" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40" t="s">
-        <v>23</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="O40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="Q40" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="Q40" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40" s="0" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:19">
-      <c r="A41" t="s">
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="1" t="n">
         <v>43410</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D41"/>
-      <c r="E41">
+      <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41" t="s">
+      <c r="J41" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41" t="s">
-        <v>23</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="O41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="Q41" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" t="s">
+      <c r="Q41" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R41" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:19">
-      <c r="A42" t="s">
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B42" s="1" t="n">
         <v>43409</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D42"/>
-      <c r="E42">
+      <c r="E42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42" t="s">
+      <c r="J42" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42" t="s">
+      <c r="O42" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="Q42" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R42" t="s">
+      <c r="R42" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S42" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
-      <c r="A43" t="s">
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B43" s="1" t="n">
         <v>43407</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D43"/>
-      <c r="E43">
+      <c r="E43" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43" t="s">
+      <c r="J43" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43" t="s">
-        <v>23</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="O43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P43" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="Q43" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" t="s">
+      <c r="Q43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R43" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="S43" t="s">
+      <c r="S43" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
-      <c r="A44" t="s">
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B44" s="1" t="n">
         <v>43406</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D44"/>
-      <c r="E44">
+      <c r="E44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44" t="s">
+      <c r="J44" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44" t="s">
-        <v>23</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="O44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="Q44" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" t="s">
+      <c r="Q44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R44" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="S44" t="s">
+      <c r="S44" s="0" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="45" spans="1:19">
-      <c r="A45" t="s">
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B45" s="1" t="n">
         <v>43405</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="D45"/>
-      <c r="E45">
+      <c r="E45" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45" t="s">
+      <c r="J45" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45" t="s">
+      <c r="O45" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="Q45" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="R45" t="s">
+      <c r="R45" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="S45" t="s">
+      <c r="S45" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:19">
-      <c r="A46" t="s">
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B46" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D46"/>
-      <c r="E46">
+      <c r="E46" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46" t="s">
+      <c r="J46" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46" t="s">
+      <c r="O46" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="Q46" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="R46" t="s">
+      <c r="R46" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="S46" t="s">
+      <c r="S46" s="0" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
-      <c r="A47" t="s">
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47" s="1" t="n">
         <v>43411</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D47"/>
-      <c r="E47">
+      <c r="E47" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47" t="s">
+      <c r="J47" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47" t="s">
-        <v>23</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="O47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P47" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="Q47" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" t="s">
+      <c r="Q47" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R47" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="S47" t="s">
+      <c r="S47" s="0" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
-      <c r="A48" t="s">
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48" s="1" t="n">
         <v>43410</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D48"/>
-      <c r="E48">
+      <c r="E48" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48" t="s">
+      <c r="J48" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48" t="s">
-        <v>23</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="O48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="Q48" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" t="s">
+      <c r="Q48" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R48" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="S48" t="s">
+      <c r="S48" s="0" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
-      <c r="A49" t="s">
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49" s="1" t="n">
         <v>43409</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D49"/>
-      <c r="E49">
+      <c r="E49" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49" t="s">
+      <c r="J49" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49" t="s">
+      <c r="O49" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="Q49" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R49" t="s">
+      <c r="R49" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="S49" t="s">
+      <c r="S49" s="0" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:19">
-      <c r="A50" t="s">
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50" s="1" t="n">
         <v>43405</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D50"/>
-      <c r="E50">
+      <c r="E50" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50" t="s">
+      <c r="J50" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50" t="s">
+      <c r="O50" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="Q50" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="R50" t="s">
+      <c r="R50" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S50" s="0" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
-      <c r="A51" t="s">
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B51" s="1" t="n">
         <v>43416</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51" t="s">
+      <c r="J51" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K51" t="s">
+      <c r="K51" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L51" t="s">
+      <c r="L51" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="N51"/>
-      <c r="O51" t="s">
-        <v>23</v>
-      </c>
-      <c r="P51" t="s">
+      <c r="O51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="Q51" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" t="s">
+      <c r="Q51" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R51" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="S51" t="s">
+      <c r="S51" s="0" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
-      <c r="A52" t="s">
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B52" s="1" t="n">
         <v>43413</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52" t="s">
+      <c r="J52" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K52" t="s">
+      <c r="K52" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="L52" t="s">
+      <c r="L52" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="N52"/>
-      <c r="O52" t="s">
-        <v>23</v>
-      </c>
-      <c r="P52" t="s">
+      <c r="O52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="Q52" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" t="s">
+      <c r="Q52" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R52" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="S52" t="s">
+      <c r="S52" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
-      <c r="A53" t="s">
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B53" s="1" t="n">
         <v>43412</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="0" t="n">
         <v>91</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53" t="s">
+      <c r="J53" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="K53" t="s">
+      <c r="K53" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L53" t="s">
+      <c r="L53" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="N53"/>
-      <c r="O53" t="s">
-        <v>23</v>
-      </c>
-      <c r="P53" t="s">
+      <c r="O53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P53" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="Q53" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" t="s">
+      <c r="Q53" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="S53" t="s">
+      <c r="S53" s="0" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
-      <c r="A54" t="s">
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B54" s="1" t="n">
         <v>43411</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54" t="s">
+      <c r="J54" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K54" t="s">
+      <c r="K54" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="L54" t="s">
+      <c r="L54" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="N54"/>
-      <c r="O54" t="s">
+      <c r="O54" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="Q54" t="s">
+      <c r="Q54" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="R54" t="s">
+      <c r="R54" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="S54" t="s">
+      <c r="S54" s="0" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
-      <c r="A55" t="s">
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B55" s="1" t="n">
         <v>43410</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55" t="s">
+      <c r="J55" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55" t="s">
-        <v>23</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="O55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="Q55" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" t="s">
+      <c r="Q55" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R55" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="S55" t="s">
+      <c r="S55" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:19">
-      <c r="A56" t="s">
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B56" s="1" t="n">
         <v>43409</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56" t="s">
+      <c r="J56" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="K56" t="s">
+      <c r="K56" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L56" t="s">
+      <c r="L56" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="N56"/>
-      <c r="O56" t="s">
-        <v>23</v>
-      </c>
-      <c r="P56" t="s">
+      <c r="O56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="Q56" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" t="s">
+      <c r="Q56" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R56" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S56" s="0" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
-      <c r="A57" t="s">
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B57" s="1" t="n">
         <v>43406</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57" t="s">
+      <c r="J57" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K57" t="s">
+      <c r="K57" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="L57" t="s">
+      <c r="L57" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57" t="s">
-        <v>23</v>
-      </c>
-      <c r="P57" t="s">
+      <c r="O57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="Q57" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" t="s">
+      <c r="Q57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R57" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="S57" t="s">
+      <c r="S57" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="58" spans="1:19">
-      <c r="A58" t="s">
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B58" s="1" t="n">
         <v>43405</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58" t="s">
+      <c r="J58" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="K58" t="s">
+      <c r="K58" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="N58"/>
-      <c r="O58" t="s">
-        <v>23</v>
-      </c>
-      <c r="P58" t="s">
+      <c r="O58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="P58" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="Q58" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" t="s">
+      <c r="Q58" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="R58" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="S58" t="s">
+      <c r="S58" s="0" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
-      <c r="A59" t="s">
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59" t="s">
+      <c r="E59" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>